--- a/data/Enviar Arquivo - Chrome.xlsx
+++ b/data/Enviar Arquivo - Chrome.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,7 +408,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1043</v>
+        <v>1064</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
